--- a/medicine/Mort/Cimetière_de_la_Trinité_(division_II)/Cimetière_de_la_Trinité_(division_II).xlsx
+++ b/medicine/Mort/Cimetière_de_la_Trinité_(division_II)/Cimetière_de_la_Trinité_(division_II).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(division_II)</t>
+          <t>Cimetière_de_la_Trinité_(division_II)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Trinité (division II) (Dreifaltigkeitskirchhof II) est un cimetière évangélique à Berlin-Kreuzberg en Allemagne. C'est l'un des quatre cimetières évangéliques de la Bergmannstraße avec le cimetière de Luisenstadt, le cimetière de Jérusalem et de la nouvelle église (division IV) et le cimetière de Friedrichswerder.
 Les cimetières de la Trinité étaient rattachés à la paroisse de l'église de la Trinité à Berlin-Friedrichstadt, détruite pendant la seconde Guerre mondiale. Les cimetières de la Trinité sont répartis à travers Berlin : la division I est à Berlin-Kreuzberg, la division III (de) est à Berlin-Mariendorf et la division IV (de) est à Berlin-Lankwitz. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(division_II)</t>
+          <t>Cimetière_de_la_Trinité_(division_II)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière d'environ 49 000 m2 est caractérisé par ses nombreuses sépultures monumentales en forme de mausolées, chapelles funéraires ou tombes sculptées du XIXe siècle et du début du XXe siècle, parfois avec des enclos de fer forgé. Son emplacement à flanc de colline est plutôt inhabituel  pour un cimetière berlinois, ce qui lui donne un aspect remarquable, ayant été aménagé sur d'anciens vignobles. Ce cimetière est inscrit à la liste des monuments protégés de Berlin[1]. Parmi les sépultures remarquables, l'on compte celle de la famille Westphalen (1833), la stèle du peintre Carl Blechen (1798-1840), la sépulture murale de style néogothique de la famille Hesse (1842) ou bien encore le mausolée de brique de la famille Epenstein (1843), conçu sans doute par Eduard Knoblauch ou l'un de ses collaborateurs. La tradition néoclassique est représentant par le mausolée de l'architecte Wilhelm Kunzemann (1868) pour lui-même et sa famille, en forme de temple à colonnes doriques. Non loin se trouve la sépulture de l'architecte Martin Gropius (1824-1880), dessiné par lui-même en 1868 avec une pergola rectangulaire, un espace clôturé avec des colonnes doriques et un entablement. Le visiteur retient aussi un relief de marbre de 1883 de Rudolf Siemering, représentant une allégorie de la Mort et de l'Art. L'on remarque le mausolée néogothique de l'ingénieur Carl Kneipp. Après 1870, la vogue est au style néo-renaissance. Un des monuments funéraires parmi les plus importants en taille et en décoration que l'on puisse trouver à Berlin est celui du richissime entrepreneur anobli, Friedrich Wilhelm von Krause (1802-1877) et de sa femme Flora von Krause, née Gallisch (1816-1873)[1].
-Le cimetière comporte aussi un carré militaire avec en son milieu une sépulture commune, entourée de quelques tombes individuelles. Trois cent quatre-vingt-dix-neuf victimes de la guerre y sont inhumées, dont la plupart ont été tuées au cours de bombardements ou bien sont des victimes mortes sous les bombes à la toute fin de la guerre. Des soldats et vingt-deux anonymes tuées dans l'année 1945 s'y trouvent. Trente soldats de la Première Guerre mondiale y reposent également[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière d'environ 49 000 m2 est caractérisé par ses nombreuses sépultures monumentales en forme de mausolées, chapelles funéraires ou tombes sculptées du XIXe siècle et du début du XXe siècle, parfois avec des enclos de fer forgé. Son emplacement à flanc de colline est plutôt inhabituel  pour un cimetière berlinois, ce qui lui donne un aspect remarquable, ayant été aménagé sur d'anciens vignobles. Ce cimetière est inscrit à la liste des monuments protégés de Berlin. Parmi les sépultures remarquables, l'on compte celle de la famille Westphalen (1833), la stèle du peintre Carl Blechen (1798-1840), la sépulture murale de style néogothique de la famille Hesse (1842) ou bien encore le mausolée de brique de la famille Epenstein (1843), conçu sans doute par Eduard Knoblauch ou l'un de ses collaborateurs. La tradition néoclassique est représentant par le mausolée de l'architecte Wilhelm Kunzemann (1868) pour lui-même et sa famille, en forme de temple à colonnes doriques. Non loin se trouve la sépulture de l'architecte Martin Gropius (1824-1880), dessiné par lui-même en 1868 avec une pergola rectangulaire, un espace clôturé avec des colonnes doriques et un entablement. Le visiteur retient aussi un relief de marbre de 1883 de Rudolf Siemering, représentant une allégorie de la Mort et de l'Art. L'on remarque le mausolée néogothique de l'ingénieur Carl Kneipp. Après 1870, la vogue est au style néo-renaissance. Un des monuments funéraires parmi les plus importants en taille et en décoration que l'on puisse trouver à Berlin est celui du richissime entrepreneur anobli, Friedrich Wilhelm von Krause (1802-1877) et de sa femme Flora von Krause, née Gallisch (1816-1873).
+Le cimetière comporte aussi un carré militaire avec en son milieu une sépulture commune, entourée de quelques tombes individuelles. Trois cent quatre-vingt-dix-neuf victimes de la guerre y sont inhumées, dont la plupart ont été tuées au cours de bombardements ou bien sont des victimes mortes sous les bombes à la toute fin de la guerre. Des soldats et vingt-deux anonymes tuées dans l'année 1945 s'y trouvent. Trente soldats de la Première Guerre mondiale y reposent également.
 			Mausolée néoclassique de la famille Horkenbach (dont l'éditeur Cuno Horkenbach 1883-1968) construit en 1860
 			Tombe néoclassique de l'architecte Martin Gropius
 			Tombe de la famille Rüterbusch
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Trinit%C3%A9_(division_II)</t>
+          <t>Cimetière_de_la_Trinité_(division_II)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Curt Agthe (de) (1862-1943), peintre
@@ -605,8 +621,43 @@
 Ludwig Tieck (1773-1853), poète, traducteur, éditeur, romancier et critique
 Albert Traeger (1830-1912), député du Reichstag
 Georg Wertheim (de) (1857-1939), industriel
-Tombes célèbres disparues
-Ferdinand Bellermann (1814-1889), peintre et naturaliste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_Trinité_(division_II)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_Trinit%C3%A9_(division_II)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tombes célèbres disparues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ferdinand Bellermann (1814-1889), peintre et naturaliste
 Carl Blechen (1798-1840), peintre paysagiste professeur à l'Académie des arts de Berlin
 Moriz Haupt (1808-1874), philologue
 Johann Ernst Plamann (1771-1834), pédagogue
